--- a/05.cleaning/04.project.names/rev.01/from.eslam.xlsx
+++ b/05.cleaning/04.project.names/rev.01/from.eslam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\OneDrive - Rowad Modern Engineering\x004 Data Science\03.rme.db\00.repo\rme.db\05.cleaning\04.project.names\rev.01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297EE7DF-E4EA-4AC0-B59F-3EA661519071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561204CC-18E6-4CF0-8A5E-FD448707163B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,19 +18,30 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">eslam!$A$1:$A$316</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'match.with.erp.invoicing'!$A$1:$D$317</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'match.with.erp.invoicing'!$A$2:$D$383</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="454">
   <si>
     <t>PK #107</t>
   </si>
@@ -989,10 +1000,409 @@
     <t>October Under-Railway Tunnel</t>
   </si>
   <si>
-    <t>Abou Ghaleb Bridge</t>
-  </si>
-  <si>
-    <t>Project NUM</t>
+    <t>Aljazi Project</t>
+  </si>
+  <si>
+    <t>P-17-Egy-20 Aljazi</t>
+  </si>
+  <si>
+    <t>PROJECT_NUMBER</t>
+  </si>
+  <si>
+    <t>Abo Ghaleb</t>
+  </si>
+  <si>
+    <t>D0085</t>
+  </si>
+  <si>
+    <t>Alfa New Central Labs</t>
+  </si>
+  <si>
+    <t>SODIC Allegria Villa f100</t>
+  </si>
+  <si>
+    <t>Astoria Sharm elSheikh</t>
+  </si>
+  <si>
+    <t>Waldorf Astoria Cairo</t>
+  </si>
+  <si>
+    <t>Benban 500 K.V/95 K.M</t>
+  </si>
+  <si>
+    <t>P-02-19-Lot 2 Ben 95 K.M</t>
+  </si>
+  <si>
+    <t>Benban 500 K.V / 100 K.M</t>
+  </si>
+  <si>
+    <t>P-02-19-Lot 1 Ben 100 K.M</t>
+  </si>
+  <si>
+    <t>Benban 3/ Toshka 2 LOT 4</t>
+  </si>
+  <si>
+    <t>P-20-2019 Lot 4</t>
+  </si>
+  <si>
+    <t>Benban 3/ Toshka 2 Lot 6</t>
+  </si>
+  <si>
+    <t>P-20-2019 Lot 6</t>
+  </si>
+  <si>
+    <t>Benban 4 As El-Nakra 220 K.V</t>
+  </si>
+  <si>
+    <t>P-05-19 Ben4 Aswan</t>
+  </si>
+  <si>
+    <t>Cement Factory-Beni Suef</t>
+  </si>
+  <si>
+    <t>TR0024</t>
+  </si>
+  <si>
+    <t>CFC Podium 2</t>
+  </si>
+  <si>
+    <t>Creeks URBN-K</t>
+  </si>
+  <si>
+    <t>_x000D_West Damietta PP Phase I</t>
+  </si>
+  <si>
+    <t>Damietta Container Termin</t>
+  </si>
+  <si>
+    <t>DP World Basin 2 Ph2</t>
+  </si>
+  <si>
+    <t>Egat Rolling Mill no.4</t>
+  </si>
+  <si>
+    <t>EGAT Lock &amp; Load</t>
+  </si>
+  <si>
+    <t>EGAT New Rolling Mill 4</t>
+  </si>
+  <si>
+    <t>D0069</t>
+  </si>
+  <si>
+    <t>EGAT Mechanical Installations</t>
+  </si>
+  <si>
+    <t>EGAT Injection</t>
+  </si>
+  <si>
+    <t>TR0048</t>
+  </si>
+  <si>
+    <t>EGAT ADMIN (Pelletizing)</t>
+  </si>
+  <si>
+    <t>TR0094</t>
+  </si>
+  <si>
+    <t>EIPICO Factory</t>
+  </si>
+  <si>
+    <t>TR0054</t>
+  </si>
+  <si>
+    <t>EIPICO C002-23</t>
+  </si>
+  <si>
+    <t>TR0068</t>
+  </si>
+  <si>
+    <t>Elsewedy Univ - Enabling Works</t>
+  </si>
+  <si>
+    <t>ElSewedy HQ Internal Finishing</t>
+  </si>
+  <si>
+    <t>El Sewedy University</t>
+  </si>
+  <si>
+    <t>T0008</t>
+  </si>
+  <si>
+    <t>EL Sewedy University Tec.</t>
+  </si>
+  <si>
+    <t>T0039</t>
+  </si>
+  <si>
+    <t>Substation Elco Steel</t>
+  </si>
+  <si>
+    <t>Elco Steel 220/33 KV SS</t>
+  </si>
+  <si>
+    <t>DoubleTree Mangroovy ElGouna</t>
+  </si>
+  <si>
+    <t>Mangrouve Hotel - Gouna</t>
+  </si>
+  <si>
+    <t>TR0021</t>
+  </si>
+  <si>
+    <t>eslam</t>
+  </si>
+  <si>
+    <t>invoicing new query</t>
+  </si>
+  <si>
+    <t>Wadi Halfa Port</t>
+  </si>
+  <si>
+    <t>MDF Factory - Sadat</t>
+  </si>
+  <si>
+    <t>TR0093</t>
+  </si>
+  <si>
+    <t>EMAAR- Pkg 140-ITP-Mivida</t>
+  </si>
+  <si>
+    <t>Mivida BP#189</t>
+  </si>
+  <si>
+    <t>New Giza Teaching Hospital</t>
+  </si>
+  <si>
+    <t>New Giza Hos</t>
+  </si>
+  <si>
+    <t>TR0073</t>
+  </si>
+  <si>
+    <t>TR0040</t>
+  </si>
+  <si>
+    <t>New Giza 2</t>
+  </si>
+  <si>
+    <t>NGZA/UNVI/1369</t>
+  </si>
+  <si>
+    <t>ORA ZED - Ph 01B - Pkgs A&amp;D</t>
+  </si>
+  <si>
+    <t>ORA ZED-Ph 2-Pkgs A&amp;D</t>
+  </si>
+  <si>
+    <t>Ora Zed Landscape Ph1</t>
+  </si>
+  <si>
+    <t>ora zed orascom</t>
+  </si>
+  <si>
+    <t>TR0069</t>
+  </si>
+  <si>
+    <t>ORA ZED TOWER #2</t>
+  </si>
+  <si>
+    <t>TR0049</t>
+  </si>
+  <si>
+    <t>Ora Zed -Landscape</t>
+  </si>
+  <si>
+    <t>TR0070</t>
+  </si>
+  <si>
+    <t>EMAAR-PKG#107-MARASSI</t>
+  </si>
+  <si>
+    <t>EMAR/IPWT/1459</t>
+  </si>
+  <si>
+    <t>EMAAR-PKG117- MARASSI</t>
+  </si>
+  <si>
+    <t>EMAAR-PKG#22-MARASSI</t>
+  </si>
+  <si>
+    <t>EMAR/ITPR/11226</t>
+  </si>
+  <si>
+    <t>EMAAR-PKG# 101-UPTOWN</t>
+  </si>
+  <si>
+    <t>EMAAR-PKG# 144, Marassi</t>
+  </si>
+  <si>
+    <t>EMAAR-Pkg#162/163- Marassi</t>
+  </si>
+  <si>
+    <t>BKG#178-Lagoon Discharge</t>
+  </si>
+  <si>
+    <t>Marassi Inner Marina - PKG178</t>
+  </si>
+  <si>
+    <t>D0055</t>
+  </si>
+  <si>
+    <t>SOL Town PKG.220</t>
+  </si>
+  <si>
+    <t>EMAAR-PKG#85-UPTOWN</t>
+  </si>
+  <si>
+    <t>RING ROAD MARYOTIA EXPANSION</t>
+  </si>
+  <si>
+    <t>Ring Road Bridges Project</t>
+  </si>
+  <si>
+    <t>T0012</t>
+  </si>
+  <si>
+    <t>Expansion of Ring Road NRCC</t>
+  </si>
+  <si>
+    <t>D0080</t>
+  </si>
+  <si>
+    <t>Ring Road El Mansoria</t>
+  </si>
+  <si>
+    <t>T0032</t>
+  </si>
+  <si>
+    <t>Ring Road -General Nile Co</t>
+  </si>
+  <si>
+    <t>T0030</t>
+  </si>
+  <si>
+    <t>Expansion of Ring Road</t>
+  </si>
+  <si>
+    <t>D0071</t>
+  </si>
+  <si>
+    <t>Expansion of Ring Road-CFA</t>
+  </si>
+  <si>
+    <t>D0079</t>
+  </si>
+  <si>
+    <t>Ring Road El Monib</t>
+  </si>
+  <si>
+    <t>T0041</t>
+  </si>
+  <si>
+    <t>Siemens 6x500/220 KV GIS-MOU</t>
+  </si>
+  <si>
+    <t>P-19-15</t>
+  </si>
+  <si>
+    <t>Club House-Sodic Wesset</t>
+  </si>
+  <si>
+    <t>TR0019</t>
+  </si>
+  <si>
+    <t>Sodic East</t>
+  </si>
+  <si>
+    <t>TR0004</t>
+  </si>
+  <si>
+    <t>Sodic East Town(EDNC)</t>
+  </si>
+  <si>
+    <t>TR0090</t>
+  </si>
+  <si>
+    <t>Olympic Multi – Sports Hall</t>
+  </si>
+  <si>
+    <t>Ain Sokhna Port Development</t>
+  </si>
+  <si>
+    <t>D0062</t>
+  </si>
+  <si>
+    <t>EMAAR-PKG#53-UPTOWN</t>
+  </si>
+  <si>
+    <t>EMAR/SIER/1354</t>
+  </si>
+  <si>
+    <t>EMAAR-PKG#62-UPTOWN</t>
+  </si>
+  <si>
+    <t>Village E PKG#62</t>
+  </si>
+  <si>
+    <t>HyperOne Zayed Extension</t>
+  </si>
+  <si>
+    <t>IKEA Extension MoA</t>
+  </si>
+  <si>
+    <t>JICA lot 02</t>
+  </si>
+  <si>
+    <t>P-29-EGY-18 JICA lot 02</t>
+  </si>
+  <si>
+    <t>Kafr Shokr Bridge</t>
+  </si>
+  <si>
+    <t>Kattmeya Creeks Urban</t>
+  </si>
+  <si>
+    <t>TR0071</t>
+  </si>
+  <si>
+    <t>Kattameya Creeks</t>
+  </si>
+  <si>
+    <t>Katameya Creeks - RME</t>
+  </si>
+  <si>
+    <t>TR0053</t>
+  </si>
+  <si>
+    <t>El Khatatba Bridge</t>
+  </si>
+  <si>
+    <t>Tarek Abdel-Hakim Center</t>
+  </si>
+  <si>
+    <t>Tarek AbdelHakim Center - KSA</t>
+  </si>
+  <si>
+    <t>K0001</t>
+  </si>
+  <si>
+    <t>Lekela 250MW Wind Farm</t>
+  </si>
+  <si>
+    <t>Port Said Port Silos</t>
+  </si>
+  <si>
+    <t>Port Said</t>
+  </si>
+  <si>
+    <t>P-22-12</t>
+  </si>
+  <si>
+    <t>Red Sea Museum-Bab El-Bunt</t>
+  </si>
+  <si>
+    <t>K0003</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1427,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1027,6 +1437,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,9 +1465,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1329,7 +1758,7 @@
   <dimension ref="A1:A316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2926,10 +3355,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5E5259-9503-47C6-827D-510B845B8653}">
-  <dimension ref="A1:D316"/>
+  <dimension ref="A1:D382"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2937,1606 +3367,2739 @@
     <col min="1" max="1" width="42.44140625" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="26.21875" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="D1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C2" t="s">
-        <v>318</v>
+      <c r="D2" s="1" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B3" t="s">
-        <v>319</v>
+        <v>193</v>
+      </c>
+      <c r="C3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D3">
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" t="s">
+        <v>322</v>
+      </c>
+      <c r="D4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D6" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>319</v>
+      </c>
+      <c r="D7" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
+        <v>319</v>
+      </c>
+      <c r="D8" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>149</v>
+      </c>
+      <c r="C9" t="s">
+        <v>319</v>
+      </c>
+      <c r="D9" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>319</v>
+      </c>
+      <c r="D10" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>155</v>
+      </c>
+      <c r="B11" t="s">
+        <v>324</v>
+      </c>
+      <c r="D11">
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>194</v>
+        <v>70</v>
+      </c>
+      <c r="C12" t="s">
+        <v>325</v>
+      </c>
+      <c r="D12">
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>189</v>
+        <v>194</v>
+      </c>
+      <c r="B13" t="s">
+        <v>326</v>
+      </c>
+      <c r="D13">
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>174</v>
+        <v>189</v>
+      </c>
+      <c r="B14" t="s">
+        <v>326</v>
+      </c>
+      <c r="D14">
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>152</v>
+        <v>174</v>
+      </c>
+      <c r="C15" t="s">
+        <v>327</v>
+      </c>
+      <c r="D15">
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" t="s">
+        <v>327</v>
+      </c>
+      <c r="D16">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="C17" t="s">
+        <v>327</v>
+      </c>
+      <c r="D17">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="C18" t="s">
+        <v>327</v>
+      </c>
+      <c r="D18">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="C19" t="s">
+        <v>327</v>
+      </c>
+      <c r="D19">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="C20" t="s">
+        <v>327</v>
+      </c>
+      <c r="D20">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="C21" t="s">
+        <v>327</v>
+      </c>
+      <c r="D21">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>328</v>
+      </c>
+      <c r="D25" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>330</v>
+      </c>
+      <c r="D26" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>332</v>
+      </c>
+      <c r="D27" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>334</v>
+      </c>
+      <c r="D28" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>336</v>
+      </c>
+      <c r="D29" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="C30" t="s">
+        <v>338</v>
+      </c>
+      <c r="D30" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="C31" t="s">
+        <v>338</v>
+      </c>
+      <c r="D31" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="B32" t="s">
+        <v>340</v>
+      </c>
+      <c r="D32">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="B33" t="s">
+        <v>340</v>
+      </c>
+      <c r="D33">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="B34" t="s">
+        <v>340</v>
+      </c>
+      <c r="D34">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>341</v>
+      </c>
+      <c r="D42">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>439</v>
+      </c>
+      <c r="D43" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>342</v>
+      </c>
+      <c r="D47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>343</v>
+      </c>
+      <c r="D48">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="C51" t="s">
+        <v>344</v>
+      </c>
+      <c r="D51">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="C52" t="s">
+        <v>344</v>
+      </c>
+      <c r="D52">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="C53" t="s">
+        <v>140</v>
+      </c>
+      <c r="D53">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="C54" t="s">
+        <v>140</v>
+      </c>
+      <c r="D54">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="C55" t="s">
+        <v>140</v>
+      </c>
+      <c r="D55">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="C56" t="s">
+        <v>140</v>
+      </c>
+      <c r="D56">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="C57" t="s">
+        <v>140</v>
+      </c>
+      <c r="D57">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="C58" t="s">
+        <v>140</v>
+      </c>
+      <c r="D58">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="C59" t="s">
+        <v>140</v>
+      </c>
+      <c r="D59">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="C60" t="s">
+        <v>140</v>
+      </c>
+      <c r="D60">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="C61" t="s">
+        <v>140</v>
+      </c>
+      <c r="D61">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="C62" t="s">
+        <v>140</v>
+      </c>
+      <c r="D62">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="C63" t="s">
+        <v>140</v>
+      </c>
+      <c r="D63">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>140</v>
+      </c>
+      <c r="D74">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C75" t="s">
+        <v>345</v>
+      </c>
+      <c r="D75">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
+        <v>346</v>
+      </c>
+      <c r="D76">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>347</v>
+      </c>
+      <c r="D77" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>349</v>
+      </c>
+      <c r="D78">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
+        <v>350</v>
+      </c>
+      <c r="D79" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C80" t="s">
+        <v>352</v>
+      </c>
+      <c r="D80" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C84" t="s">
+        <v>354</v>
+      </c>
+      <c r="D84" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C85" t="s">
+        <v>356</v>
+      </c>
+      <c r="D85" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C95" t="s">
+        <v>358</v>
+      </c>
+      <c r="D95">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C96" t="s">
+        <v>359</v>
+      </c>
+      <c r="D96">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C97" t="s">
+        <v>360</v>
+      </c>
+      <c r="D97" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C98" t="s">
+        <v>362</v>
+      </c>
+      <c r="D98" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C108" t="s">
+        <v>364</v>
+      </c>
+      <c r="D108">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C109" t="s">
+        <v>365</v>
+      </c>
+      <c r="D109">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C114" t="s">
+        <v>366</v>
+      </c>
+      <c r="D114">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C115" t="s">
+        <v>367</v>
+      </c>
+      <c r="D115" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
+      <c r="C128" t="s">
+        <v>434</v>
+      </c>
+      <c r="D128">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
+      <c r="C129" t="s">
+        <v>434</v>
+      </c>
+      <c r="D129">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+      <c r="C130" t="s">
+        <v>434</v>
+      </c>
+      <c r="D130">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+      <c r="C131" t="s">
+        <v>434</v>
+      </c>
+      <c r="D131">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+      <c r="B132" t="s">
+        <v>435</v>
+      </c>
+      <c r="D132">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+      <c r="B133" t="s">
+        <v>435</v>
+      </c>
+      <c r="D133">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+      <c r="B134" t="s">
+        <v>435</v>
+      </c>
+      <c r="D134">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
+      <c r="C135" t="s">
+        <v>436</v>
+      </c>
+      <c r="D135" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
+      <c r="C136" t="s">
+        <v>436</v>
+      </c>
+      <c r="D136" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
+      <c r="B137" t="s">
+        <v>438</v>
+      </c>
+      <c r="D137">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
+      <c r="B138" t="s">
+        <v>438</v>
+      </c>
+      <c r="D138">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C143" t="s">
+        <v>441</v>
+      </c>
+      <c r="D143">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C144" t="s">
+        <v>442</v>
+      </c>
+      <c r="D144" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
+      <c r="B147" t="s">
+        <v>444</v>
+      </c>
+      <c r="D147">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C150" t="s">
+        <v>445</v>
+      </c>
+      <c r="D150">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C151" t="s">
+        <v>446</v>
+      </c>
+      <c r="D151" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
+      <c r="B152" t="s">
+        <v>448</v>
+      </c>
+      <c r="D152">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
+      <c r="B153" t="s">
+        <v>448</v>
+      </c>
+      <c r="D153">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
+      <c r="B154" t="s">
+        <v>448</v>
+      </c>
+      <c r="D154">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
+      <c r="B155" t="s">
+        <v>448</v>
+      </c>
+      <c r="D155">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
+      <c r="B156" t="s">
+        <v>448</v>
+      </c>
+      <c r="D156">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
+      <c r="B157" t="s">
+        <v>448</v>
+      </c>
+      <c r="D157">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C168" t="s">
+        <v>142</v>
+      </c>
+      <c r="D168">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C169" t="s">
+        <v>372</v>
+      </c>
+      <c r="D169" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
+      <c r="B175" t="s">
+        <v>374</v>
+      </c>
+      <c r="D175">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
+      <c r="B176" t="s">
+        <v>374</v>
+      </c>
+      <c r="D176">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
+      <c r="B177" t="s">
+        <v>374</v>
+      </c>
+      <c r="D177">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
+      <c r="B178" t="s">
+        <v>375</v>
+      </c>
+      <c r="D178">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
+      <c r="B179" t="s">
+        <v>375</v>
+      </c>
+      <c r="D179">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
+      <c r="B180" t="s">
+        <v>375</v>
+      </c>
+      <c r="D180">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
+      <c r="B181" t="s">
+        <v>375</v>
+      </c>
+      <c r="D181">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C192" t="s">
+        <v>376</v>
+      </c>
+      <c r="D192">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C193" t="s">
+        <v>377</v>
+      </c>
+      <c r="D193" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C194" t="s">
+        <v>170</v>
+      </c>
+      <c r="D194" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C195" t="s">
+        <v>380</v>
+      </c>
+      <c r="D195" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C210" t="s">
+        <v>382</v>
+      </c>
+      <c r="D210">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C211" t="s">
+        <v>383</v>
+      </c>
+      <c r="D211">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C212" t="s">
+        <v>384</v>
+      </c>
+      <c r="D212">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C213" t="s">
+        <v>385</v>
+      </c>
+      <c r="D213" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C214" t="s">
+        <v>387</v>
+      </c>
+      <c r="D214" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C215" t="s">
+        <v>389</v>
+      </c>
+      <c r="D215" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
+      <c r="B226" t="s">
+        <v>391</v>
+      </c>
+      <c r="D226" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
+      <c r="B227" t="s">
+        <v>393</v>
+      </c>
+      <c r="D227">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
+      <c r="B228" t="s">
+        <v>393</v>
+      </c>
+      <c r="D228">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
+      <c r="B229" t="s">
+        <v>394</v>
+      </c>
+      <c r="D229" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
+      <c r="B230" t="s">
+        <v>394</v>
+      </c>
+      <c r="D230" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
+      <c r="B232" t="s">
+        <v>396</v>
+      </c>
+      <c r="D232">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
+      <c r="B233" t="s">
+        <v>396</v>
+      </c>
+      <c r="D233">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
+      <c r="B234" t="s">
+        <v>396</v>
+      </c>
+      <c r="D234">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
+      <c r="B235" t="s">
+        <v>396</v>
+      </c>
+      <c r="D235">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
+      <c r="B236" t="s">
+        <v>397</v>
+      </c>
+      <c r="D236">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
+      <c r="B237" t="s">
+        <v>397</v>
+      </c>
+      <c r="D237">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
+      <c r="B238" t="s">
+        <v>397</v>
+      </c>
+      <c r="D238">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C245" t="s">
+        <v>398</v>
+      </c>
+      <c r="D245">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A206" t="s">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A207" t="s">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A208" t="s">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C254" t="s">
+        <v>399</v>
+      </c>
+      <c r="D254">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C255" t="s">
+        <v>400</v>
+      </c>
+      <c r="D255" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A211" t="s">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
+      <c r="C259" t="s">
+        <v>402</v>
+      </c>
+      <c r="D259">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
+      <c r="C260" t="s">
+        <v>402</v>
+      </c>
+      <c r="D260">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A216" t="s">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A217" t="s">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A218" t="s">
+      <c r="B263" t="s">
+        <v>403</v>
+      </c>
+      <c r="D263">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A219" t="s">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A221" t="s">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A222" t="s">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A223" t="s">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A224" t="s">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A225" t="s">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C271" t="s">
+        <v>449</v>
+      </c>
+      <c r="D271">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C272" t="s">
+        <v>450</v>
+      </c>
+      <c r="D272" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A226" t="s">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A227" t="s">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A228" t="s">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A229" t="s">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A230" t="s">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A231" t="s">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A232" t="s">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A233" t="s">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A234" t="s">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A235" t="s">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A236" t="s">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A237" t="s">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A238" t="s">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A239" t="s">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A240" t="s">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A241" t="s">
+      <c r="C288" t="s">
+        <v>452</v>
+      </c>
+      <c r="D288" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
+      <c r="C289" t="s">
+        <v>452</v>
+      </c>
+      <c r="D289" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A243" t="s">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A244" t="s">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A245" t="s">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A246" t="s">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A247" t="s">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C295" t="s">
+        <v>404</v>
+      </c>
+      <c r="D295">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C296" t="s">
+        <v>405</v>
+      </c>
+      <c r="D296" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C297" t="s">
+        <v>407</v>
+      </c>
+      <c r="D297" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C298" t="s">
+        <v>409</v>
+      </c>
+      <c r="D298" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C299" t="s">
+        <v>411</v>
+      </c>
+      <c r="D299" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C300" t="s">
+        <v>413</v>
+      </c>
+      <c r="D300" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C301" t="s">
+        <v>415</v>
+      </c>
+      <c r="D301" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C302" t="s">
+        <v>417</v>
+      </c>
+      <c r="D302" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A248" t="s">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A249" t="s">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A250" t="s">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A251" t="s">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A252" t="s">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A253" t="s">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A254" t="s">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A255" t="s">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A256" t="s">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A257" t="s">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C313" t="s">
+        <v>345</v>
+      </c>
+      <c r="D313">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C314" t="s">
+        <v>347</v>
+      </c>
+      <c r="D314" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
+      <c r="C315" t="s">
+        <v>7</v>
+      </c>
+      <c r="D315">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
+      <c r="C316" t="s">
+        <v>7</v>
+      </c>
+      <c r="D316">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A260" t="s">
+      <c r="C317" t="s">
+        <v>7</v>
+      </c>
+      <c r="D317">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
+      <c r="C318" t="s">
+        <v>7</v>
+      </c>
+      <c r="D318">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A262" t="s">
+      <c r="C319" t="s">
+        <v>7</v>
+      </c>
+      <c r="D319">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A263" t="s">
+      <c r="C320" t="s">
+        <v>7</v>
+      </c>
+      <c r="D320">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A264" t="s">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A265" t="s">
+      <c r="C322" t="s">
+        <v>419</v>
+      </c>
+      <c r="D322" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A266" t="s">
+      <c r="C323" t="s">
+        <v>419</v>
+      </c>
+      <c r="D323" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A267" t="s">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A268" t="s">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A269" t="s">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A270" t="s">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A271" t="s">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A272" t="s">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A273" t="s">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A274" t="s">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A275" t="s">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C333" t="s">
+        <v>6</v>
+      </c>
+      <c r="D333">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C334" t="s">
+        <v>421</v>
+      </c>
+      <c r="D334" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A276" t="s">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A277" t="s">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A278" t="s">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A279" t="s">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A280" t="s">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C340" t="s">
+        <v>423</v>
+      </c>
+      <c r="D340" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C341" t="s">
+        <v>425</v>
+      </c>
+      <c r="D341" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A281" t="s">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A282" t="s">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A283" t="s">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A284" t="s">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A285" t="s">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A286" t="s">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A287" t="s">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C349" t="s">
+        <v>428</v>
+      </c>
+      <c r="D349" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C350" t="s">
+        <v>178</v>
+      </c>
+      <c r="D350">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A288" t="s">
+      <c r="C351" t="s">
+        <v>427</v>
+      </c>
+      <c r="D351">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A289" t="s">
+      <c r="C352" t="s">
+        <v>427</v>
+      </c>
+      <c r="D352">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A290" t="s">
+      <c r="C353" t="s">
+        <v>427</v>
+      </c>
+      <c r="D353">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A291" t="s">
+      <c r="C354" t="s">
+        <v>427</v>
+      </c>
+      <c r="D354">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A292" t="s">
+      <c r="C355" t="s">
+        <v>427</v>
+      </c>
+      <c r="D355">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A293" t="s">
+      <c r="C356" t="s">
+        <v>427</v>
+      </c>
+      <c r="D356">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A294" t="s">
+      <c r="C357" t="s">
+        <v>427</v>
+      </c>
+      <c r="D357">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A295" t="s">
+      <c r="C358" t="s">
+        <v>427</v>
+      </c>
+      <c r="D358">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A296" t="s">
+      <c r="C359" t="s">
+        <v>427</v>
+      </c>
+      <c r="D359">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A297" t="s">
+      <c r="C360" t="s">
+        <v>427</v>
+      </c>
+      <c r="D360">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A298" t="s">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A299" t="s">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A300" t="s">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A301" t="s">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A302" t="s">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A303" t="s">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A304" t="s">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A305" t="s">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A306" t="s">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A307" t="s">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A308" t="s">
+      <c r="B371" t="s">
+        <v>430</v>
+      </c>
+      <c r="D371" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A309" t="s">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A310" t="s">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C374" t="s">
+        <v>432</v>
+      </c>
+      <c r="D374" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C375" t="s">
+        <v>398</v>
+      </c>
+      <c r="D375">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A311" t="s">
+      <c r="B376" t="s">
+        <v>371</v>
+      </c>
+      <c r="D376">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A312" t="s">
+      <c r="B377" t="s">
+        <v>371</v>
+      </c>
+      <c r="D377">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A313" t="s">
+      <c r="B378" t="s">
+        <v>371</v>
+      </c>
+      <c r="D378">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A314" t="s">
+      <c r="B379" t="s">
+        <v>371</v>
+      </c>
+      <c r="D379">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A315" t="s">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A316" t="s">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
         <v>86</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D317" xr:uid="{4F5E5259-9503-47C6-827D-510B845B8653}"/>
+  <autoFilter ref="A2:D383" xr:uid="{4F5E5259-9503-47C6-827D-510B845B8653}"/>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/05.cleaning/04.project.names/rev.01/from.eslam.xlsx
+++ b/05.cleaning/04.project.names/rev.01/from.eslam.xlsx
@@ -5,20 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\OneDrive - Rowad Modern Engineering\x004 Data Science\03.rme.db\00.repo\rme.db\05.cleaning\04.project.names\rev.01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rowadmodern-my.sharepoint.com/personal/omar_essam_rowad-rme_com/Documents/x004 Data Science/03.rme.db/00.repo/rme.db/05.cleaning/04.project.names/rev.01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561204CC-18E6-4CF0-8A5E-FD448707163B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="200" documentId="13_ncr:1_{561204CC-18E6-4CF0-8A5E-FD448707163B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09B41BB6-2DE5-4BCC-A459-3B266B98B3A5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="eslam" sheetId="1" r:id="rId1"/>
     <sheet name="match.with.erp.invoicing" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">eslam!$A$1:$A$316</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'match.with.erp.invoicing'!$A$2:$D$383</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'match.with.erp.invoicing'!$A$2:$D$385</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="480">
   <si>
     <t>PK #107</t>
   </si>
@@ -1078,9 +1079,6 @@
     <t>DP World Basin 2 Ph2</t>
   </si>
   <si>
-    <t>Egat Rolling Mill no.4</t>
-  </si>
-  <si>
     <t>EGAT Lock &amp; Load</t>
   </si>
   <si>
@@ -1403,6 +1401,87 @@
   </si>
   <si>
     <t>K0003</t>
+  </si>
+  <si>
+    <t>Le Galawa Hotel Resort</t>
+  </si>
+  <si>
+    <t>C0001</t>
+  </si>
+  <si>
+    <t>DPW Onshore Port &amp; Terminal</t>
+  </si>
+  <si>
+    <t>EPICO 3 Facility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VO </t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>will know egat contracts later</t>
+  </si>
+  <si>
+    <t>sadly benban is not in invoicing</t>
+  </si>
+  <si>
+    <t>check elco steel vo ifseperate contract</t>
+  </si>
+  <si>
+    <t>Hyper One Badr</t>
+  </si>
+  <si>
+    <t>T0026</t>
+  </si>
+  <si>
+    <t>belong to rolling mill</t>
+  </si>
+  <si>
+    <t>will find later</t>
+  </si>
+  <si>
+    <t>egypt or ksa at eslam file</t>
+  </si>
+  <si>
+    <t>MOC HQ at Diriyah</t>
+  </si>
+  <si>
+    <t>K0005</t>
+  </si>
+  <si>
+    <t>ESU Ph2-Enabling &amp; Struc</t>
+  </si>
+  <si>
+    <t>P.I.Parks - Plot 10</t>
+  </si>
+  <si>
+    <t>P-33-EGY-2021 PIP indust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">162,163 and 177 </t>
+  </si>
+  <si>
+    <t>Rabigh CCPP-Civil</t>
+  </si>
+  <si>
+    <t>K0006</t>
+  </si>
+  <si>
+    <t>Rabigh PP - Piling Works</t>
+  </si>
+  <si>
+    <t>K0004</t>
+  </si>
+  <si>
+    <t>rolling mill contracts</t>
+  </si>
+  <si>
+    <t>EDNC Retail &amp; Offices Civil</t>
+  </si>
+  <si>
+    <t>EDNC Hardscape Package</t>
   </si>
 </sst>
 </file>
@@ -1427,7 +1506,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1452,6 +1531,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1465,7 +1556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1475,6 +1566,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3355,32 +3452,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5E5259-9503-47C6-827D-510B845B8653}">
-  <dimension ref="A1:D382"/>
+  <dimension ref="A1:E384"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="42.44140625" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="26.21875" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>369</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>370</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>315</v>
       </c>
@@ -3393,19 +3491,22 @@
       <c r="D2" s="1" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>193</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s">
         <v>318</v>
       </c>
       <c r="D3">
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>167</v>
       </c>
@@ -3416,67 +3517,67 @@
         <v>323</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s">
         <v>319</v>
       </c>
       <c r="D6" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>58</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B7" t="s">
         <v>319</v>
       </c>
       <c r="D7" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>64</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B8" t="s">
         <v>319</v>
       </c>
       <c r="D8" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>149</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B9" t="s">
         <v>319</v>
       </c>
       <c r="D9" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B10" t="s">
         <v>319</v>
       </c>
       <c r="D10" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>155</v>
       </c>
@@ -3487,7 +3588,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -3498,7 +3599,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>194</v>
       </c>
@@ -3509,7 +3610,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>189</v>
       </c>
@@ -3520,174 +3621,166 @@
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>174</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B15" t="s">
         <v>327</v>
       </c>
       <c r="D15">
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>152</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B16" t="s">
         <v>327</v>
       </c>
       <c r="D16">
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>289</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B17" t="s">
         <v>327</v>
       </c>
       <c r="D17">
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>254</v>
       </c>
-      <c r="C18" t="s">
+      <c r="B18" t="s">
         <v>327</v>
       </c>
       <c r="D18">
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>288</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B19" t="s">
         <v>327</v>
       </c>
       <c r="D19">
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>290</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B20" t="s">
         <v>327</v>
       </c>
       <c r="D20">
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>252</v>
       </c>
-      <c r="C21" t="s">
+      <c r="B21" t="s">
         <v>327</v>
       </c>
       <c r="D21">
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C25" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C25" s="5" t="s">
         <v>328</v>
       </c>
       <c r="D25" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C26" s="5" t="s">
         <v>330</v>
       </c>
       <c r="D26" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C27" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C27" s="5" t="s">
         <v>332</v>
       </c>
       <c r="D27" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C28" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C28" s="5" t="s">
         <v>334</v>
       </c>
       <c r="D28" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C29" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C29" s="5" t="s">
         <v>336</v>
       </c>
       <c r="D29" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>4</v>
       </c>
-      <c r="C30" t="s">
-        <v>338</v>
-      </c>
-      <c r="D30" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B31" t="s">
         <v>338</v>
       </c>
       <c r="D31" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>340</v>
-      </c>
-      <c r="D32">
-        <v>113</v>
+        <v>338</v>
+      </c>
+      <c r="D32" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>263</v>
+        <v>92</v>
       </c>
       <c r="B33" t="s">
         <v>340</v>
@@ -3698,7 +3791,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>263</v>
       </c>
       <c r="B34" t="s">
         <v>340</v>
@@ -3708,113 +3801,169 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+      <c r="A35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" t="s">
+        <v>340</v>
+      </c>
+      <c r="D35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+      <c r="B36" t="s">
+        <v>453</v>
+      </c>
+      <c r="D36" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+      <c r="B37" t="s">
+        <v>453</v>
+      </c>
+      <c r="D37" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>291</v>
+      <c r="B38" t="s">
+        <v>453</v>
+      </c>
+      <c r="D38" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>240</v>
+        <v>291</v>
+      </c>
+      <c r="B39" t="s">
+        <v>453</v>
+      </c>
+      <c r="D39" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>211</v>
+        <v>240</v>
+      </c>
+      <c r="B40" t="s">
+        <v>341</v>
+      </c>
+      <c r="D40">
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>211</v>
+      </c>
+      <c r="B41" t="s">
+        <v>341</v>
+      </c>
+      <c r="D41">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C42" t="s">
+      <c r="B42" t="s">
         <v>341</v>
       </c>
       <c r="D42">
         <v>192</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C43" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C44" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="D44" t="s">
         <v>439</v>
-      </c>
-      <c r="D43" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>310</v>
+        <v>313</v>
+      </c>
+      <c r="B45" t="s">
+        <v>343</v>
+      </c>
+      <c r="D45">
+        <v>216</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>310</v>
+      </c>
+      <c r="B46" t="s">
+        <v>343</v>
+      </c>
+      <c r="D46">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C47" t="s">
+      <c r="B47" t="s">
+        <v>343</v>
+      </c>
+      <c r="D47">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C48" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="D47">
+      <c r="D48">
         <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C48" t="s">
-        <v>343</v>
-      </c>
-      <c r="D48">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>455</v>
+      </c>
+      <c r="D50">
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>227</v>
-      </c>
-      <c r="C51" t="s">
-        <v>344</v>
+        <v>46</v>
+      </c>
+      <c r="B51" t="s">
+        <v>455</v>
       </c>
       <c r="D51">
-        <v>193</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>229</v>
-      </c>
-      <c r="C52" t="s">
+        <v>227</v>
+      </c>
+      <c r="B52" t="s">
         <v>344</v>
       </c>
       <c r="D52">
@@ -3823,20 +3972,20 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>140</v>
-      </c>
-      <c r="C53" t="s">
-        <v>140</v>
+        <v>229</v>
+      </c>
+      <c r="B53" t="s">
+        <v>344</v>
       </c>
       <c r="D53">
-        <v>144</v>
+        <v>193</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>293</v>
-      </c>
-      <c r="C54" t="s">
+        <v>140</v>
+      </c>
+      <c r="B54" t="s">
         <v>140</v>
       </c>
       <c r="D54">
@@ -3845,9 +3994,9 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>251</v>
-      </c>
-      <c r="C55" t="s">
+        <v>293</v>
+      </c>
+      <c r="B55" t="s">
         <v>140</v>
       </c>
       <c r="D55">
@@ -3856,9 +4005,9 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>257</v>
-      </c>
-      <c r="C56" t="s">
+        <v>251</v>
+      </c>
+      <c r="B56" t="s">
         <v>140</v>
       </c>
       <c r="D56">
@@ -3867,9 +4016,9 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>130</v>
-      </c>
-      <c r="C57" t="s">
+        <v>257</v>
+      </c>
+      <c r="B57" t="s">
         <v>140</v>
       </c>
       <c r="D57">
@@ -3878,9 +4027,9 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>196</v>
-      </c>
-      <c r="C58" t="s">
+        <v>130</v>
+      </c>
+      <c r="B58" t="s">
         <v>140</v>
       </c>
       <c r="D58">
@@ -3889,9 +4038,9 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>256</v>
-      </c>
-      <c r="C59" t="s">
+        <v>196</v>
+      </c>
+      <c r="B59" t="s">
         <v>140</v>
       </c>
       <c r="D59">
@@ -3900,9 +4049,9 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>143</v>
-      </c>
-      <c r="C60" t="s">
+        <v>256</v>
+      </c>
+      <c r="B60" t="s">
         <v>140</v>
       </c>
       <c r="D60">
@@ -3911,9 +4060,9 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>258</v>
-      </c>
-      <c r="C61" t="s">
+        <v>143</v>
+      </c>
+      <c r="B61" t="s">
         <v>140</v>
       </c>
       <c r="D61">
@@ -3922,9 +4071,9 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>202</v>
-      </c>
-      <c r="C62" t="s">
+        <v>258</v>
+      </c>
+      <c r="B62" t="s">
         <v>140</v>
       </c>
       <c r="D62">
@@ -3933,9 +4082,9 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>141</v>
-      </c>
-      <c r="C63" t="s">
+        <v>202</v>
+      </c>
+      <c r="B63" t="s">
         <v>140</v>
       </c>
       <c r="D63">
@@ -3944,381 +4093,524 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>141</v>
+      </c>
+      <c r="B64" t="s">
+        <v>140</v>
+      </c>
+      <c r="D64">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+      <c r="E67" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+      <c r="B71" t="s">
+        <v>345</v>
+      </c>
+      <c r="D71">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+      <c r="B72" t="s">
+        <v>345</v>
+      </c>
+      <c r="D72">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C74" t="s">
-        <v>140</v>
-      </c>
-      <c r="D74">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C75" t="s">
-        <v>345</v>
-      </c>
-      <c r="D75">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C76" t="s">
-        <v>346</v>
-      </c>
-      <c r="D76">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C77" t="s">
-        <v>347</v>
-      </c>
-      <c r="D77" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C78" t="s">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C78" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="D78">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C79" t="s">
+      <c r="D78" t="s">
         <v>350</v>
       </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C79" s="5" t="s">
+        <v>351</v>
+      </c>
       <c r="D79" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C80" t="s">
         <v>352</v>
       </c>
-      <c r="D80" t="s">
-        <v>353</v>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>214</v>
+      </c>
+      <c r="B80" t="s">
+        <v>456</v>
+      </c>
+      <c r="D80">
+        <v>187</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>214</v>
+        <v>204</v>
+      </c>
+      <c r="B81" t="s">
+        <v>456</v>
+      </c>
+      <c r="D81">
+        <v>187</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>204</v>
+        <v>259</v>
+      </c>
+      <c r="B82" t="s">
+        <v>456</v>
+      </c>
+      <c r="D82">
+        <v>187</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>259</v>
+      <c r="C83" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="D83" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C84" t="s">
-        <v>354</v>
+      <c r="C84" s="5" t="s">
+        <v>355</v>
       </c>
       <c r="D84" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C85" t="s">
-        <v>356</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="A85" t="s">
+        <v>31</v>
+      </c>
+      <c r="B85" t="s">
         <v>357</v>
+      </c>
+      <c r="D85">
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="B86" t="s">
+        <v>357</v>
+      </c>
+      <c r="D86">
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="B87" t="s">
+        <v>357</v>
+      </c>
+      <c r="D87">
+        <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="B88" t="s">
+        <v>357</v>
+      </c>
+      <c r="D88">
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>30</v>
+        <v>97</v>
+      </c>
+      <c r="B89" t="s">
+        <v>357</v>
+      </c>
+      <c r="D89">
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>97</v>
+        <v>55</v>
+      </c>
+      <c r="B90" t="s">
+        <v>357</v>
+      </c>
+      <c r="D90">
+        <v>85</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>55</v>
+        <v>72</v>
+      </c>
+      <c r="B91" t="s">
+        <v>357</v>
+      </c>
+      <c r="D91">
+        <v>85</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>72</v>
+        <v>50</v>
+      </c>
+      <c r="B92" t="s">
+        <v>357</v>
+      </c>
+      <c r="D92">
+        <v>85</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
         <v>98</v>
       </c>
+      <c r="B93" t="s">
+        <v>357</v>
+      </c>
+      <c r="D93">
+        <v>85</v>
+      </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C95" t="s">
-        <v>358</v>
-      </c>
-      <c r="D95">
-        <v>85</v>
+      <c r="C95" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="D95" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C96" t="s">
-        <v>359</v>
-      </c>
-      <c r="D96">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C97" t="s">
-        <v>360</v>
-      </c>
-      <c r="D97" t="s">
+      <c r="C96" s="5" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C98" t="s">
+      <c r="D96" t="s">
         <v>362</v>
       </c>
-      <c r="D98" t="s">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D97">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>15</v>
+      </c>
+      <c r="B98" t="s">
+        <v>363</v>
+      </c>
+      <c r="D98">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="B99" t="s">
+        <v>363</v>
+      </c>
+      <c r="D99">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="B100" t="s">
+        <v>363</v>
+      </c>
+      <c r="D100">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="B101" t="s">
+        <v>363</v>
+      </c>
+      <c r="D101">
+        <v>96</v>
+      </c>
+      <c r="E101" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="B102" t="s">
+        <v>363</v>
+      </c>
+      <c r="D102">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="B103" t="s">
+        <v>363</v>
+      </c>
+      <c r="D103">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="B104" t="s">
+        <v>363</v>
+      </c>
+      <c r="D104">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C108" t="s">
+      <c r="B105" t="s">
+        <v>363</v>
+      </c>
+      <c r="D105">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C107" s="5" t="s">
         <v>364</v>
       </c>
+      <c r="D107">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>84</v>
+      </c>
+      <c r="B108" t="s">
+        <v>365</v>
+      </c>
       <c r="D108">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C109" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>78</v>
+      </c>
+      <c r="B109" t="s">
         <v>365</v>
       </c>
       <c r="D109">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+      <c r="B110" t="s">
+        <v>365</v>
+      </c>
+      <c r="D110">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C114" t="s">
+      <c r="B111" t="s">
+        <v>365</v>
+      </c>
+      <c r="D111">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C113" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="D114">
+      <c r="D113" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>283</v>
+      </c>
+      <c r="E115" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E118" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="8" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C115" t="s">
-        <v>367</v>
-      </c>
-      <c r="D115" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
+      <c r="E122" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
+        <v>358</v>
+      </c>
+      <c r="D124">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B125" t="s">
+        <v>358</v>
+      </c>
+      <c r="D125">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
+        <v>358</v>
+      </c>
+      <c r="D126">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
+        <v>358</v>
+      </c>
+      <c r="D127">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>88</v>
       </c>
-      <c r="C128" t="s">
-        <v>434</v>
+      <c r="B128" t="s">
+        <v>433</v>
       </c>
       <c r="D128">
         <v>111</v>
@@ -4328,8 +4620,8 @@
       <c r="A129" t="s">
         <v>81</v>
       </c>
-      <c r="C129" t="s">
-        <v>434</v>
+      <c r="B129" t="s">
+        <v>433</v>
       </c>
       <c r="D129">
         <v>111</v>
@@ -4339,8 +4631,8 @@
       <c r="A130" t="s">
         <v>103</v>
       </c>
-      <c r="C130" t="s">
-        <v>434</v>
+      <c r="B130" t="s">
+        <v>433</v>
       </c>
       <c r="D130">
         <v>111</v>
@@ -4350,30 +4642,27 @@
       <c r="A131" t="s">
         <v>101</v>
       </c>
-      <c r="C131" t="s">
-        <v>434</v>
+      <c r="B131" t="s">
+        <v>433</v>
       </c>
       <c r="D131">
         <v>111</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>85</v>
-      </c>
-      <c r="B132" t="s">
-        <v>435</v>
-      </c>
-      <c r="D132">
-        <v>112</v>
+      <c r="C132" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="D132" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B133" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D133">
         <v>112</v>
@@ -4381,10 +4670,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="B134" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D134">
         <v>112</v>
@@ -4392,43 +4681,43 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>1</v>
-      </c>
-      <c r="C135" t="s">
-        <v>436</v>
-      </c>
-      <c r="D135" t="s">
-        <v>437</v>
+        <v>184</v>
+      </c>
+      <c r="B135" t="s">
+        <v>434</v>
+      </c>
+      <c r="D135">
+        <v>112</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C136" t="s">
+        <v>435</v>
+      </c>
+      <c r="D136" t="s">
         <v>436</v>
-      </c>
-      <c r="D136" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>132</v>
-      </c>
-      <c r="B137" t="s">
-        <v>438</v>
-      </c>
-      <c r="D137">
-        <v>130</v>
+        <v>17</v>
+      </c>
+      <c r="C137" t="s">
+        <v>435</v>
+      </c>
+      <c r="D137" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="B138" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D138">
         <v>130</v>
@@ -4436,261 +4725,344 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>124</v>
+        <v>163</v>
+      </c>
+      <c r="B139" t="s">
+        <v>437</v>
+      </c>
+      <c r="D139">
+        <v>130</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>120</v>
+        <v>124</v>
+      </c>
+      <c r="B140" t="s">
+        <v>440</v>
+      </c>
+      <c r="D140">
+        <v>138</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>219</v>
+        <v>120</v>
+      </c>
+      <c r="B141" t="s">
+        <v>440</v>
+      </c>
+      <c r="D141">
+        <v>138</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
+        <v>219</v>
+      </c>
+      <c r="B142" t="s">
+        <v>440</v>
+      </c>
+      <c r="D142">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C143" t="s">
-        <v>441</v>
+      <c r="B143" t="s">
+        <v>440</v>
       </c>
       <c r="D143">
         <v>138</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C144" t="s">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C145" t="s">
+        <v>441</v>
+      </c>
+      <c r="D145" t="s">
         <v>442</v>
       </c>
-      <c r="D144" t="s">
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>169</v>
+      </c>
+      <c r="B148" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>169</v>
-      </c>
-      <c r="B147" t="s">
+      <c r="D148">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C151" t="s">
         <v>444</v>
       </c>
-      <c r="D147">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C150" t="s">
+      <c r="D151">
+        <v>212</v>
+      </c>
+      <c r="E151" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C152" t="s">
         <v>445</v>
       </c>
-      <c r="D150">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C151" t="s">
+      <c r="D152" t="s">
         <v>446</v>
       </c>
-      <c r="D151" t="s">
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>106</v>
+      </c>
+      <c r="B153" t="s">
         <v>447</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>106</v>
-      </c>
-      <c r="B152" t="s">
-        <v>448</v>
-      </c>
-      <c r="D152">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>121</v>
-      </c>
-      <c r="B153" t="s">
-        <v>448</v>
       </c>
       <c r="D153">
         <v>125</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>231</v>
+        <v>121</v>
       </c>
       <c r="B154" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D154">
         <v>125</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>280</v>
+        <v>231</v>
       </c>
       <c r="B155" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D155">
         <v>125</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="B156" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D156">
         <v>125</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>96</v>
+        <v>253</v>
       </c>
       <c r="B157" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D157">
         <v>125</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
+        <v>96</v>
+      </c>
+      <c r="B158" t="s">
+        <v>447</v>
+      </c>
+      <c r="D158">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
+      <c r="B159" t="s">
+        <v>142</v>
+      </c>
+      <c r="D159">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
-        <v>176</v>
+      <c r="B160" t="s">
+        <v>142</v>
+      </c>
+      <c r="D160">
+        <v>147</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>136</v>
+        <v>176</v>
+      </c>
+      <c r="B161" t="s">
+        <v>142</v>
+      </c>
+      <c r="D161">
+        <v>147</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>235</v>
+        <v>136</v>
+      </c>
+      <c r="B162" t="s">
+        <v>142</v>
+      </c>
+      <c r="D162">
+        <v>147</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>281</v>
+        <v>235</v>
+      </c>
+      <c r="B163" t="s">
+        <v>142</v>
+      </c>
+      <c r="D163">
+        <v>147</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>244</v>
+        <v>281</v>
+      </c>
+      <c r="B164" t="s">
+        <v>142</v>
+      </c>
+      <c r="D164">
+        <v>147</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>228</v>
+        <v>244</v>
+      </c>
+      <c r="B165" t="s">
+        <v>142</v>
+      </c>
+      <c r="D165">
+        <v>147</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>215</v>
+        <v>228</v>
+      </c>
+      <c r="B166" t="s">
+        <v>142</v>
+      </c>
+      <c r="D166">
+        <v>147</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
+        <v>215</v>
+      </c>
+      <c r="B167" t="s">
+        <v>142</v>
+      </c>
+      <c r="D167">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C168" t="s">
+      <c r="B168" t="s">
         <v>142</v>
       </c>
       <c r="D168">
         <v>147</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C169" t="s">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C170" t="s">
+        <v>371</v>
+      </c>
+      <c r="D170" t="s">
         <v>372</v>
-      </c>
-      <c r="D169" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>234</v>
+        <v>294</v>
+      </c>
+      <c r="B171" t="s">
+        <v>348</v>
+      </c>
+      <c r="D171">
+        <v>198</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>19</v>
+        <v>234</v>
+      </c>
+      <c r="B172" t="s">
+        <v>348</v>
+      </c>
+      <c r="D172">
+        <v>198</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>67</v>
-      </c>
-      <c r="B175" t="s">
-        <v>374</v>
-      </c>
-      <c r="D175">
-        <v>98</v>
+        <v>37</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="B176" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D176">
         <v>98</v>
@@ -4698,10 +5070,10 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="B177" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D177">
         <v>98</v>
@@ -4709,21 +5081,21 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>190</v>
+        <v>49</v>
       </c>
       <c r="B178" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D178">
-        <v>170</v>
+        <v>98</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>273</v>
+        <v>190</v>
       </c>
       <c r="B179" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D179">
         <v>170</v>
@@ -4731,10 +5103,10 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="B180" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D180">
         <v>170</v>
@@ -4742,10 +5114,10 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>158</v>
+        <v>308</v>
       </c>
       <c r="B181" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D181">
         <v>170</v>
@@ -4753,282 +5125,421 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>295</v>
+        <v>158</v>
+      </c>
+      <c r="B182" t="s">
+        <v>374</v>
+      </c>
+      <c r="D182">
+        <v>170</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>279</v>
+        <v>306</v>
+      </c>
+      <c r="B184" t="s">
+        <v>467</v>
+      </c>
+      <c r="D184" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>232</v>
+        <v>279</v>
+      </c>
+      <c r="B185" t="s">
+        <v>467</v>
+      </c>
+      <c r="D185" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>170</v>
+        <v>232</v>
+      </c>
+      <c r="B186" t="s">
+        <v>375</v>
+      </c>
+      <c r="D186">
+        <v>126</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>159</v>
+        <v>170</v>
+      </c>
+      <c r="B187" t="s">
+        <v>375</v>
+      </c>
+      <c r="D187">
+        <v>126</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>200</v>
+        <v>159</v>
+      </c>
+      <c r="B188" t="s">
+        <v>375</v>
+      </c>
+      <c r="D188">
+        <v>126</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>206</v>
+        <v>200</v>
+      </c>
+      <c r="B189" t="s">
+        <v>375</v>
+      </c>
+      <c r="D189">
+        <v>126</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>11</v>
+        <v>206</v>
+      </c>
+      <c r="B190" t="s">
+        <v>375</v>
+      </c>
+      <c r="D190">
+        <v>126</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
+        <v>11</v>
+      </c>
+      <c r="B191" t="s">
+        <v>379</v>
+      </c>
+      <c r="D191" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C192" t="s">
-        <v>376</v>
-      </c>
-      <c r="D192">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C193" t="s">
-        <v>377</v>
-      </c>
-      <c r="D193" t="s">
-        <v>378</v>
+      <c r="B192" t="s">
+        <v>379</v>
+      </c>
+      <c r="D192" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C194" t="s">
-        <v>170</v>
+        <v>376</v>
       </c>
       <c r="D194" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C195" t="s">
-        <v>380</v>
+        <v>170</v>
       </c>
       <c r="D195" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
-        <v>87</v>
+        <v>378</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>181</v>
+        <v>119</v>
+      </c>
+      <c r="B198" t="s">
+        <v>381</v>
+      </c>
+      <c r="D198">
+        <v>137</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>285</v>
+        <v>181</v>
+      </c>
+      <c r="B199" t="s">
+        <v>381</v>
+      </c>
+      <c r="D199">
+        <v>137</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>113</v>
+        <v>285</v>
+      </c>
+      <c r="B200" t="s">
+        <v>381</v>
+      </c>
+      <c r="D200">
+        <v>137</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>216</v>
+        <v>113</v>
+      </c>
+      <c r="B201" t="s">
+        <v>381</v>
+      </c>
+      <c r="D201">
+        <v>137</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>287</v>
+        <v>138</v>
+      </c>
+      <c r="B202" t="s">
+        <v>381</v>
+      </c>
+      <c r="D202">
+        <v>137</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>192</v>
+        <v>284</v>
+      </c>
+      <c r="B203" t="s">
+        <v>381</v>
+      </c>
+      <c r="D203">
+        <v>137</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>138</v>
+        <v>216</v>
+      </c>
+      <c r="B204" t="s">
+        <v>383</v>
+      </c>
+      <c r="D204">
+        <v>185</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>150</v>
+        <v>287</v>
+      </c>
+      <c r="B205" t="s">
+        <v>383</v>
+      </c>
+      <c r="D205">
+        <v>185</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>277</v>
+        <v>192</v>
+      </c>
+      <c r="B206" t="s">
+        <v>383</v>
+      </c>
+      <c r="D206">
+        <v>185</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>286</v>
+        <v>150</v>
+      </c>
+      <c r="B207" t="s">
+        <v>382</v>
+      </c>
+      <c r="D207">
+        <v>151</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
+        <v>277</v>
+      </c>
+      <c r="B208" t="s">
+        <v>382</v>
+      </c>
+      <c r="D208">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>286</v>
+      </c>
+      <c r="B209" t="s">
+        <v>382</v>
+      </c>
+      <c r="D209">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C210" t="s">
+      <c r="B210" t="s">
         <v>382</v>
       </c>
       <c r="D210">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C211" t="s">
-        <v>383</v>
-      </c>
-      <c r="D211">
         <v>151</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C212" t="s">
         <v>384</v>
       </c>
-      <c r="D212">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D212" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C213" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D213" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C214" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D214" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C215" t="s">
         <v>389</v>
       </c>
-      <c r="D215" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>89</v>
+      </c>
+      <c r="B215" t="s">
+        <v>469</v>
+      </c>
+      <c r="D215">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="B216" t="s">
+        <v>469</v>
+      </c>
+      <c r="D216">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+      <c r="B217" t="s">
+        <v>469</v>
+      </c>
+      <c r="D217">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+      <c r="B218" t="s">
+        <v>469</v>
+      </c>
+      <c r="D218">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+      <c r="B219" t="s">
+        <v>469</v>
+      </c>
+      <c r="D219">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="B220" t="s">
+        <v>469</v>
+      </c>
+      <c r="D220">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="E221" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A225" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A226" t="s">
-        <v>0</v>
-      </c>
-      <c r="B226" t="s">
-        <v>391</v>
-      </c>
-      <c r="D226" t="s">
-        <v>392</v>
+      <c r="C225" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="D225" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B227" t="s">
-        <v>393</v>
-      </c>
-      <c r="D227">
-        <v>71</v>
+        <v>390</v>
+      </c>
+      <c r="D227" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="B228" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D228">
         <v>71</v>
@@ -5036,48 +5547,48 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B229" t="s">
-        <v>394</v>
-      </c>
-      <c r="D229" t="s">
-        <v>395</v>
+        <v>392</v>
+      </c>
+      <c r="D229">
+        <v>71</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
+        <v>65</v>
+      </c>
+      <c r="B230" t="s">
+        <v>393</v>
+      </c>
+      <c r="D230" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
         <v>79</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B231" t="s">
+        <v>393</v>
+      </c>
+      <c r="D231" t="s">
         <v>394</v>
       </c>
-      <c r="D230" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A231" s="2" t="s">
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" s="2" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A232" t="s">
-        <v>53</v>
-      </c>
-      <c r="B232" t="s">
-        <v>396</v>
-      </c>
-      <c r="D232">
-        <v>95</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="B233" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D233">
         <v>95</v>
@@ -5085,10 +5596,10 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="B234" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D234">
         <v>95</v>
@@ -5096,10 +5607,10 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="B235" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D235">
         <v>95</v>
@@ -5107,21 +5618,21 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="B236" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D236">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B237" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D237">
         <v>93</v>
@@ -5129,10 +5640,10 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B238" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D238">
         <v>93</v>
@@ -5140,99 +5651,181 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>102</v>
+        <v>41</v>
+      </c>
+      <c r="B239" t="s">
+        <v>396</v>
+      </c>
+      <c r="D239">
+        <v>93</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
+        <v>102</v>
+      </c>
+      <c r="B240" t="s">
+        <v>397</v>
+      </c>
+      <c r="D240">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A241" t="s">
+      <c r="B241" t="s">
+        <v>397</v>
+      </c>
+      <c r="D241">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
+      <c r="B242" t="s">
+        <v>397</v>
+      </c>
+      <c r="D242">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A243" t="s">
+      <c r="B243" t="s">
+        <v>397</v>
+      </c>
+      <c r="D243">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A244" t="s">
+      <c r="B244" t="s">
+        <v>397</v>
+      </c>
+      <c r="D244">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C245" t="s">
-        <v>398</v>
+      <c r="B245" t="s">
+        <v>397</v>
       </c>
       <c r="D245">
         <v>123</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E245" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B246" t="s">
+        <v>397</v>
+      </c>
+      <c r="D246">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B247" t="s">
+        <v>397</v>
+      </c>
+      <c r="D247">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B248" t="s">
+        <v>397</v>
+      </c>
+      <c r="D248">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B249" t="s">
+        <v>397</v>
+      </c>
+      <c r="D249">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B250" t="s">
+        <v>397</v>
+      </c>
+      <c r="D250">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B251" t="s">
+        <v>398</v>
+      </c>
+      <c r="D251">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B252" t="s">
+        <v>398</v>
+      </c>
+      <c r="D252">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C254" t="s">
+      <c r="B253" t="s">
+        <v>398</v>
+      </c>
+      <c r="D253">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C255" t="s">
         <v>399</v>
       </c>
-      <c r="D254">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C255" t="s">
+      <c r="D255" t="s">
         <v>400</v>
       </c>
-      <c r="D255" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>191</v>
       </c>
@@ -5251,8 +5844,8 @@
       <c r="A259" t="s">
         <v>249</v>
       </c>
-      <c r="C259" t="s">
-        <v>402</v>
+      <c r="B259" t="s">
+        <v>401</v>
       </c>
       <c r="D259">
         <v>205</v>
@@ -5262,8 +5855,8 @@
       <c r="A260" t="s">
         <v>245</v>
       </c>
-      <c r="C260" t="s">
-        <v>402</v>
+      <c r="B260" t="s">
+        <v>401</v>
       </c>
       <c r="D260">
         <v>205</v>
@@ -5284,7 +5877,7 @@
         <v>44</v>
       </c>
       <c r="B263" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D263">
         <v>73</v>
@@ -5299,46 +5892,74 @@
       <c r="A265" t="s">
         <v>180</v>
       </c>
+      <c r="B265" t="s">
+        <v>448</v>
+      </c>
+      <c r="D265">
+        <v>159</v>
+      </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>269</v>
       </c>
+      <c r="B266" t="s">
+        <v>448</v>
+      </c>
+      <c r="D266">
+        <v>159</v>
+      </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>225</v>
       </c>
+      <c r="B267" t="s">
+        <v>448</v>
+      </c>
+      <c r="D267">
+        <v>159</v>
+      </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>173</v>
       </c>
+      <c r="B268" t="s">
+        <v>448</v>
+      </c>
+      <c r="D268">
+        <v>159</v>
+      </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>275</v>
       </c>
+      <c r="B269" t="s">
+        <v>448</v>
+      </c>
+      <c r="D269">
+        <v>159</v>
+      </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C271" t="s">
-        <v>449</v>
-      </c>
-      <c r="D271">
+      <c r="B270" t="s">
+        <v>448</v>
+      </c>
+      <c r="D270">
         <v>159</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C272" t="s">
+        <v>449</v>
+      </c>
+      <c r="D272" t="s">
         <v>450</v>
-      </c>
-      <c r="D272" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
@@ -5361,265 +5982,293 @@
         <v>63</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A277" t="s">
-        <v>278</v>
-      </c>
-    </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>303</v>
+        <v>278</v>
+      </c>
+      <c r="B278" t="s">
+        <v>475</v>
+      </c>
+      <c r="D278" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>304</v>
+        <v>303</v>
+      </c>
+      <c r="B279" t="s">
+        <v>475</v>
+      </c>
+      <c r="D279" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>302</v>
+        <v>304</v>
+      </c>
+      <c r="B280" t="s">
+        <v>473</v>
+      </c>
+      <c r="D280" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A282" t="s">
-        <v>172</v>
+        <v>302</v>
+      </c>
+      <c r="B281" t="s">
+        <v>473</v>
+      </c>
+      <c r="D281" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>270</v>
+        <v>183</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>248</v>
+        <v>195</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>203</v>
+        <v>250</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>305</v>
-      </c>
-      <c r="C288" t="s">
-        <v>452</v>
-      </c>
-      <c r="D288" t="s">
-        <v>453</v>
+        <v>248</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>301</v>
-      </c>
-      <c r="C289" t="s">
-        <v>452</v>
-      </c>
-      <c r="D289" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A290" t="s">
-        <v>129</v>
+        <v>203</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>164</v>
+        <v>305</v>
+      </c>
+      <c r="B291" t="s">
+        <v>451</v>
+      </c>
+      <c r="D291" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>127</v>
+        <v>301</v>
+      </c>
+      <c r="B292" t="s">
+        <v>451</v>
+      </c>
+      <c r="D292" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>153</v>
+        <v>129</v>
+      </c>
+      <c r="B293" t="s">
+        <v>403</v>
+      </c>
+      <c r="D293">
+        <v>122</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>154</v>
+        <v>164</v>
+      </c>
+      <c r="B294" t="s">
+        <v>403</v>
+      </c>
+      <c r="D294">
+        <v>122</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C295" t="s">
-        <v>404</v>
+      <c r="A295" t="s">
+        <v>127</v>
+      </c>
+      <c r="B295" t="s">
+        <v>403</v>
       </c>
       <c r="D295">
         <v>122</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C296" t="s">
-        <v>405</v>
-      </c>
-      <c r="D296" t="s">
-        <v>406</v>
+      <c r="A296" t="s">
+        <v>153</v>
+      </c>
+      <c r="B296" t="s">
+        <v>403</v>
+      </c>
+      <c r="D296">
+        <v>122</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C297" t="s">
-        <v>407</v>
-      </c>
-      <c r="D297" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C298" t="s">
-        <v>409</v>
-      </c>
-      <c r="D298" t="s">
-        <v>410</v>
+      <c r="A297" t="s">
+        <v>154</v>
+      </c>
+      <c r="B297" t="s">
+        <v>403</v>
+      </c>
+      <c r="D297">
+        <v>122</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C299" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="D299" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C300" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="D300" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C301" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="D301" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C302" t="s">
+        <v>410</v>
+      </c>
+      <c r="D302" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C303" t="s">
+        <v>412</v>
+      </c>
+      <c r="D303" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C304" t="s">
+        <v>414</v>
+      </c>
+      <c r="D304" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C305" t="s">
+        <v>416</v>
+      </c>
+      <c r="D305" t="s">
         <v>417</v>
-      </c>
-      <c r="D302" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A303" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A304" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A305" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>236</v>
+        <v>296</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>165</v>
+        <v>298</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>161</v>
+        <v>237</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C313" t="s">
-        <v>345</v>
-      </c>
-      <c r="D313">
+      <c r="A313" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>165</v>
+      </c>
+      <c r="B314" t="s">
+        <v>346</v>
+      </c>
+      <c r="D314">
         <v>172</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C314" t="s">
-        <v>347</v>
-      </c>
-      <c r="D314" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>7</v>
-      </c>
-      <c r="C315" t="s">
-        <v>7</v>
+        <v>161</v>
+      </c>
+      <c r="B315" t="s">
+        <v>346</v>
       </c>
       <c r="D315">
-        <v>63</v>
+        <v>172</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A316" t="s">
-        <v>77</v>
-      </c>
-      <c r="C316" t="s">
-        <v>7</v>
-      </c>
-      <c r="D316">
-        <v>63</v>
+      <c r="C316" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D316" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>73</v>
-      </c>
-      <c r="C317" t="s">
+        <v>7</v>
+      </c>
+      <c r="B317" t="s">
         <v>7</v>
       </c>
       <c r="D317">
@@ -5628,9 +6277,9 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>199</v>
-      </c>
-      <c r="C318" t="s">
+        <v>77</v>
+      </c>
+      <c r="B318" t="s">
         <v>7</v>
       </c>
       <c r="D318">
@@ -5639,9 +6288,9 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>35</v>
-      </c>
-      <c r="C319" t="s">
+        <v>73</v>
+      </c>
+      <c r="B319" t="s">
         <v>7</v>
       </c>
       <c r="D319">
@@ -5650,189 +6299,277 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>36</v>
-      </c>
-      <c r="C320" t="s">
+        <v>199</v>
+      </c>
+      <c r="B320" t="s">
         <v>7</v>
       </c>
       <c r="D320">
         <v>63</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
+        <v>35</v>
+      </c>
+      <c r="B321" t="s">
+        <v>7</v>
+      </c>
+      <c r="D321">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>36</v>
+      </c>
+      <c r="B322" t="s">
+        <v>7</v>
+      </c>
+      <c r="D322">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A322" t="s">
+      <c r="D323">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
         <v>12</v>
       </c>
-      <c r="C322" t="s">
+      <c r="C324" t="s">
+        <v>418</v>
+      </c>
+      <c r="D324" t="s">
         <v>419</v>
       </c>
-      <c r="D322" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A323" t="s">
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
         <v>114</v>
       </c>
-      <c r="C323" t="s">
+      <c r="C325" t="s">
+        <v>418</v>
+      </c>
+      <c r="D325" t="s">
         <v>419</v>
       </c>
-      <c r="D323" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A324" t="s">
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A325" t="s">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A326" t="s">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A327" t="s">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A328" t="s">
+      <c r="E329" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A329" t="s">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A330" t="s">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A331" t="s">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A332" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C333" t="s">
+      <c r="B333" t="s">
         <v>6</v>
       </c>
       <c r="D333">
         <v>32</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C334" t="s">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>66</v>
+      </c>
+      <c r="B334" t="s">
+        <v>6</v>
+      </c>
+      <c r="D334">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C336" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="D336" t="s">
         <v>421</v>
-      </c>
-      <c r="D334" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A335" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A336" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>151</v>
+        <v>52</v>
+      </c>
+      <c r="B337" t="s">
+        <v>478</v>
+      </c>
+      <c r="D337">
+        <v>92</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>71</v>
+        <v>168</v>
+      </c>
+      <c r="B338" t="s">
+        <v>479</v>
+      </c>
+      <c r="D338">
+        <v>171</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
+        <v>151</v>
+      </c>
+      <c r="B339" t="s">
+        <v>478</v>
+      </c>
+      <c r="D339">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>71</v>
+      </c>
+      <c r="B340" t="s">
+        <v>478</v>
+      </c>
+      <c r="D340">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C340" t="s">
+      <c r="B341" t="s">
+        <v>478</v>
+      </c>
+      <c r="D341">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C342" t="s">
+        <v>422</v>
+      </c>
+      <c r="D342" t="s">
         <v>423</v>
       </c>
-      <c r="D340" t="s">
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C343" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C341" t="s">
+      <c r="D343" t="s">
         <v>425</v>
-      </c>
-      <c r="D341" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A342" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A343" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>272</v>
+        <v>178</v>
+      </c>
+      <c r="B344" t="s">
+        <v>178</v>
+      </c>
+      <c r="D344">
+        <v>145</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>223</v>
+        <v>207</v>
+      </c>
+      <c r="B345" t="s">
+        <v>178</v>
+      </c>
+      <c r="D345">
+        <v>145</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>213</v>
+        <v>272</v>
+      </c>
+      <c r="B346" t="s">
+        <v>178</v>
+      </c>
+      <c r="D346">
+        <v>145</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>157</v>
+        <v>223</v>
+      </c>
+      <c r="B347" t="s">
+        <v>178</v>
+      </c>
+      <c r="D347">
+        <v>145</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
+        <v>213</v>
+      </c>
+      <c r="B348" t="s">
+        <v>178</v>
+      </c>
+      <c r="D348">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>157</v>
+      </c>
+      <c r="B349" t="s">
+        <v>178</v>
+      </c>
+      <c r="D349">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C349" t="s">
-        <v>428</v>
-      </c>
-      <c r="D349" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C350" t="s">
+      <c r="B350" t="s">
         <v>178</v>
       </c>
       <c r="D350">
@@ -5840,33 +6577,19 @@
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A351" t="s">
-        <v>126</v>
-      </c>
       <c r="C351" t="s">
         <v>427</v>
       </c>
-      <c r="D351">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A352" t="s">
-        <v>135</v>
-      </c>
-      <c r="C352" t="s">
-        <v>427</v>
-      </c>
-      <c r="D352">
-        <v>99</v>
+      <c r="D351" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>160</v>
-      </c>
-      <c r="C353" t="s">
-        <v>427</v>
+        <v>126</v>
+      </c>
+      <c r="B353" t="s">
+        <v>426</v>
       </c>
       <c r="D353">
         <v>99</v>
@@ -5874,10 +6597,10 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>198</v>
-      </c>
-      <c r="C354" t="s">
-        <v>427</v>
+        <v>135</v>
+      </c>
+      <c r="B354" t="s">
+        <v>426</v>
       </c>
       <c r="D354">
         <v>99</v>
@@ -5885,10 +6608,10 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>182</v>
-      </c>
-      <c r="C355" t="s">
-        <v>427</v>
+        <v>160</v>
+      </c>
+      <c r="B355" t="s">
+        <v>426</v>
       </c>
       <c r="D355">
         <v>99</v>
@@ -5896,10 +6619,10 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>197</v>
-      </c>
-      <c r="C356" t="s">
-        <v>427</v>
+        <v>198</v>
+      </c>
+      <c r="B356" t="s">
+        <v>426</v>
       </c>
       <c r="D356">
         <v>99</v>
@@ -5907,10 +6630,10 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>146</v>
-      </c>
-      <c r="C357" t="s">
-        <v>427</v>
+        <v>182</v>
+      </c>
+      <c r="B357" t="s">
+        <v>426</v>
       </c>
       <c r="D357">
         <v>99</v>
@@ -5918,10 +6641,10 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>175</v>
-      </c>
-      <c r="C358" t="s">
-        <v>427</v>
+        <v>197</v>
+      </c>
+      <c r="B358" t="s">
+        <v>426</v>
       </c>
       <c r="D358">
         <v>99</v>
@@ -5929,10 +6652,10 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>144</v>
-      </c>
-      <c r="C359" t="s">
-        <v>427</v>
+        <v>146</v>
+      </c>
+      <c r="B359" t="s">
+        <v>426</v>
       </c>
       <c r="D359">
         <v>99</v>
@@ -5940,10 +6663,10 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>188</v>
-      </c>
-      <c r="C360" t="s">
-        <v>427</v>
+        <v>175</v>
+      </c>
+      <c r="B360" t="s">
+        <v>426</v>
       </c>
       <c r="D360">
         <v>99</v>
@@ -5951,119 +6674,123 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>224</v>
+        <v>144</v>
+      </c>
+      <c r="B361" t="s">
+        <v>426</v>
+      </c>
+      <c r="D361">
+        <v>99</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>210</v>
+        <v>188</v>
+      </c>
+      <c r="B362" t="s">
+        <v>426</v>
+      </c>
+      <c r="D362">
+        <v>99</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>300</v>
+        <v>224</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>209</v>
+        <v>300</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>264</v>
+        <v>209</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>9</v>
-      </c>
-      <c r="B371" t="s">
-        <v>430</v>
-      </c>
-      <c r="D371" t="s">
-        <v>431</v>
+        <v>282</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>8</v>
+        <v>266</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
+        <v>9</v>
+      </c>
+      <c r="B373" t="s">
+        <v>429</v>
+      </c>
+      <c r="D373" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>8</v>
+      </c>
+      <c r="B374" t="s">
+        <v>431</v>
+      </c>
+      <c r="D374" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C374" t="s">
+      <c r="B375" t="s">
+        <v>431</v>
+      </c>
+      <c r="D375" t="s">
         <v>432</v>
       </c>
-      <c r="D374" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C375" t="s">
-        <v>398</v>
-      </c>
-      <c r="D375">
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C377" t="s">
+        <v>397</v>
+      </c>
+      <c r="D377">
         <v>123</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A376" t="s">
-        <v>217</v>
-      </c>
-      <c r="B376" t="s">
-        <v>371</v>
-      </c>
-      <c r="D376">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A377" t="s">
-        <v>187</v>
-      </c>
-      <c r="B377" t="s">
-        <v>371</v>
-      </c>
-      <c r="D377">
-        <v>183</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>268</v>
+        <v>217</v>
       </c>
       <c r="B378" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D378">
         <v>183</v>
@@ -6071,10 +6798,10 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>292</v>
+        <v>187</v>
       </c>
       <c r="B379" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D379">
         <v>183</v>
@@ -6082,24 +6809,2568 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>233</v>
+        <v>268</v>
+      </c>
+      <c r="B380" t="s">
+        <v>370</v>
+      </c>
+      <c r="D380">
+        <v>183</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>299</v>
+        <v>292</v>
+      </c>
+      <c r="B381" t="s">
+        <v>370</v>
+      </c>
+      <c r="D381">
+        <v>183</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
         <v>86</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D383" xr:uid="{4F5E5259-9503-47C6-827D-510B845B8653}"/>
+  <autoFilter ref="A2:D385" xr:uid="{4F5E5259-9503-47C6-827D-510B845B8653}"/>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7726BC70-0997-4359-89CE-4CBE0056E6D7}">
+  <dimension ref="A1:C384"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>194</v>
+      </c>
+      <c r="B13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B15" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>289</v>
+      </c>
+      <c r="B17" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>254</v>
+      </c>
+      <c r="B18" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>288</v>
+      </c>
+      <c r="B19" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>290</v>
+      </c>
+      <c r="B20" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>252</v>
+      </c>
+      <c r="B21" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>263</v>
+      </c>
+      <c r="B34" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>139</v>
+      </c>
+      <c r="B36" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>260</v>
+      </c>
+      <c r="B37" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>261</v>
+      </c>
+      <c r="B38" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>291</v>
+      </c>
+      <c r="B39" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>240</v>
+      </c>
+      <c r="B40" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>211</v>
+      </c>
+      <c r="B41" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>243</v>
+      </c>
+      <c r="B42" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>313</v>
+      </c>
+      <c r="B45" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>310</v>
+      </c>
+      <c r="B46" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>311</v>
+      </c>
+      <c r="B47" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>227</v>
+      </c>
+      <c r="B52" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>229</v>
+      </c>
+      <c r="B53" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>140</v>
+      </c>
+      <c r="B54" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>293</v>
+      </c>
+      <c r="B55" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>251</v>
+      </c>
+      <c r="B56" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>257</v>
+      </c>
+      <c r="B57" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>130</v>
+      </c>
+      <c r="B58" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>196</v>
+      </c>
+      <c r="B59" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>256</v>
+      </c>
+      <c r="B60" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>143</v>
+      </c>
+      <c r="B61" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>258</v>
+      </c>
+      <c r="B62" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>202</v>
+      </c>
+      <c r="B63" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>141</v>
+      </c>
+      <c r="B64" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>171</v>
+      </c>
+      <c r="B71" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>162</v>
+      </c>
+      <c r="B72" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>214</v>
+      </c>
+      <c r="B80" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>204</v>
+      </c>
+      <c r="B81" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>259</v>
+      </c>
+      <c r="B82" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C84" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>31</v>
+      </c>
+      <c r="B85" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>29</v>
+      </c>
+      <c r="B86" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>32</v>
+      </c>
+      <c r="B87" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>30</v>
+      </c>
+      <c r="B88" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>97</v>
+      </c>
+      <c r="B89" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>55</v>
+      </c>
+      <c r="B90" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>72</v>
+      </c>
+      <c r="B91" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>50</v>
+      </c>
+      <c r="B92" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C95" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C96" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>15</v>
+      </c>
+      <c r="B98" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>59</v>
+      </c>
+      <c r="B100" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>34</v>
+      </c>
+      <c r="B101" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>57</v>
+      </c>
+      <c r="B102" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>69</v>
+      </c>
+      <c r="B103" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>54</v>
+      </c>
+      <c r="B104" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>68</v>
+      </c>
+      <c r="B105" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C107" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>84</v>
+      </c>
+      <c r="B108" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>78</v>
+      </c>
+      <c r="B109" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>93</v>
+      </c>
+      <c r="B110" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>94</v>
+      </c>
+      <c r="B111" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C113" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>128</v>
+      </c>
+      <c r="B124" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>117</v>
+      </c>
+      <c r="B125" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>212</v>
+      </c>
+      <c r="B126" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>314</v>
+      </c>
+      <c r="B127" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>88</v>
+      </c>
+      <c r="B128" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>81</v>
+      </c>
+      <c r="B129" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>103</v>
+      </c>
+      <c r="B130" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>101</v>
+      </c>
+      <c r="B131" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C132" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>85</v>
+      </c>
+      <c r="B133" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>83</v>
+      </c>
+      <c r="B134" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>184</v>
+      </c>
+      <c r="B135" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>1</v>
+      </c>
+      <c r="C136" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>17</v>
+      </c>
+      <c r="C137" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>132</v>
+      </c>
+      <c r="B138" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>163</v>
+      </c>
+      <c r="B139" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>124</v>
+      </c>
+      <c r="B140" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>120</v>
+      </c>
+      <c r="B141" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>219</v>
+      </c>
+      <c r="B142" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>239</v>
+      </c>
+      <c r="B143" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C145" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>169</v>
+      </c>
+      <c r="B148" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C151" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C152" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>106</v>
+      </c>
+      <c r="B153" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>121</v>
+      </c>
+      <c r="B154" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>231</v>
+      </c>
+      <c r="B155" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>280</v>
+      </c>
+      <c r="B156" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>253</v>
+      </c>
+      <c r="B157" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>96</v>
+      </c>
+      <c r="B158" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>142</v>
+      </c>
+      <c r="B159" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>166</v>
+      </c>
+      <c r="B160" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>176</v>
+      </c>
+      <c r="B161" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>136</v>
+      </c>
+      <c r="B162" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>235</v>
+      </c>
+      <c r="B163" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>281</v>
+      </c>
+      <c r="B164" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>244</v>
+      </c>
+      <c r="B165" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>228</v>
+      </c>
+      <c r="B166" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>215</v>
+      </c>
+      <c r="B167" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>238</v>
+      </c>
+      <c r="B168" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C170" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>294</v>
+      </c>
+      <c r="B171" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>234</v>
+      </c>
+      <c r="B172" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>67</v>
+      </c>
+      <c r="B176" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>100</v>
+      </c>
+      <c r="B177" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>49</v>
+      </c>
+      <c r="B178" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>190</v>
+      </c>
+      <c r="B179" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>273</v>
+      </c>
+      <c r="B180" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>308</v>
+      </c>
+      <c r="B181" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>158</v>
+      </c>
+      <c r="B182" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>306</v>
+      </c>
+      <c r="B184" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>279</v>
+      </c>
+      <c r="B185" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>232</v>
+      </c>
+      <c r="B186" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>170</v>
+      </c>
+      <c r="B187" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>159</v>
+      </c>
+      <c r="B188" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>200</v>
+      </c>
+      <c r="B189" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>206</v>
+      </c>
+      <c r="B190" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>11</v>
+      </c>
+      <c r="B191" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>116</v>
+      </c>
+      <c r="B192" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C194" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C195" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>119</v>
+      </c>
+      <c r="B198" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>181</v>
+      </c>
+      <c r="B199" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>285</v>
+      </c>
+      <c r="B200" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>113</v>
+      </c>
+      <c r="B201" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>138</v>
+      </c>
+      <c r="B202" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>284</v>
+      </c>
+      <c r="B203" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>216</v>
+      </c>
+      <c r="B204" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>287</v>
+      </c>
+      <c r="B205" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>192</v>
+      </c>
+      <c r="B206" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>150</v>
+      </c>
+      <c r="B207" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>277</v>
+      </c>
+      <c r="B208" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>286</v>
+      </c>
+      <c r="B209" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>226</v>
+      </c>
+      <c r="B210" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C212" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C213" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C214" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>89</v>
+      </c>
+      <c r="B215" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>177</v>
+      </c>
+      <c r="B216" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>104</v>
+      </c>
+      <c r="B217" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>110</v>
+      </c>
+      <c r="B218" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>133</v>
+      </c>
+      <c r="B219" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>90</v>
+      </c>
+      <c r="B220" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C225" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>0</v>
+      </c>
+      <c r="B227" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>13</v>
+      </c>
+      <c r="B228" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>56</v>
+      </c>
+      <c r="B229" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>65</v>
+      </c>
+      <c r="B230" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>79</v>
+      </c>
+      <c r="B231" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>53</v>
+      </c>
+      <c r="B233" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>118</v>
+      </c>
+      <c r="B234" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>42</v>
+      </c>
+      <c r="B235" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>80</v>
+      </c>
+      <c r="B236" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>45</v>
+      </c>
+      <c r="B237" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>60</v>
+      </c>
+      <c r="B238" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>41</v>
+      </c>
+      <c r="B239" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>102</v>
+      </c>
+      <c r="B240" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>111</v>
+      </c>
+      <c r="B241" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>95</v>
+      </c>
+      <c r="B242" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>108</v>
+      </c>
+      <c r="B243" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>115</v>
+      </c>
+      <c r="B244" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>105</v>
+      </c>
+      <c r="B245" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>137</v>
+      </c>
+      <c r="B246" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>134</v>
+      </c>
+      <c r="B247" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>186</v>
+      </c>
+      <c r="B248" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>156</v>
+      </c>
+      <c r="B249" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>147</v>
+      </c>
+      <c r="B250" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>131</v>
+      </c>
+      <c r="B251" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>125</v>
+      </c>
+      <c r="B252" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>145</v>
+      </c>
+      <c r="B253" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C255" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>249</v>
+      </c>
+      <c r="B259" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>245</v>
+      </c>
+      <c r="B260" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>44</v>
+      </c>
+      <c r="B263" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>180</v>
+      </c>
+      <c r="B265" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>269</v>
+      </c>
+      <c r="B266" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>225</v>
+      </c>
+      <c r="B267" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>173</v>
+      </c>
+      <c r="B268" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>275</v>
+      </c>
+      <c r="B269" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>201</v>
+      </c>
+      <c r="B270" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C272" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>278</v>
+      </c>
+      <c r="B278" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>303</v>
+      </c>
+      <c r="B279" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>304</v>
+      </c>
+      <c r="B280" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>302</v>
+      </c>
+      <c r="B281" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>305</v>
+      </c>
+      <c r="B291" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>301</v>
+      </c>
+      <c r="B292" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>129</v>
+      </c>
+      <c r="B293" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>164</v>
+      </c>
+      <c r="B294" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>127</v>
+      </c>
+      <c r="B295" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>153</v>
+      </c>
+      <c r="B296" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>154</v>
+      </c>
+      <c r="B297" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C299" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C300" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C301" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C302" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C303" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C304" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C305" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>165</v>
+      </c>
+      <c r="B314" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>161</v>
+      </c>
+      <c r="B315" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C316" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>7</v>
+      </c>
+      <c r="B317" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>77</v>
+      </c>
+      <c r="B318" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>73</v>
+      </c>
+      <c r="B319" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>199</v>
+      </c>
+      <c r="B320" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>35</v>
+      </c>
+      <c r="B321" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>36</v>
+      </c>
+      <c r="B322" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>12</v>
+      </c>
+      <c r="C324" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>114</v>
+      </c>
+      <c r="C325" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>6</v>
+      </c>
+      <c r="B333" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>66</v>
+      </c>
+      <c r="B334" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C336" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>52</v>
+      </c>
+      <c r="B337" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>168</v>
+      </c>
+      <c r="B338" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>151</v>
+      </c>
+      <c r="B339" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>71</v>
+      </c>
+      <c r="B340" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>40</v>
+      </c>
+      <c r="B341" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C342" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C343" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>178</v>
+      </c>
+      <c r="B344" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>207</v>
+      </c>
+      <c r="B345" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>272</v>
+      </c>
+      <c r="B346" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>223</v>
+      </c>
+      <c r="B347" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>213</v>
+      </c>
+      <c r="B348" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>157</v>
+      </c>
+      <c r="B349" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>208</v>
+      </c>
+      <c r="B350" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C351" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>126</v>
+      </c>
+      <c r="B353" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>135</v>
+      </c>
+      <c r="B354" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>160</v>
+      </c>
+      <c r="B355" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>198</v>
+      </c>
+      <c r="B356" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>182</v>
+      </c>
+      <c r="B357" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>197</v>
+      </c>
+      <c r="B358" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>146</v>
+      </c>
+      <c r="B359" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>175</v>
+      </c>
+      <c r="B360" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>144</v>
+      </c>
+      <c r="B361" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>188</v>
+      </c>
+      <c r="B362" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>9</v>
+      </c>
+      <c r="B373" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>8</v>
+      </c>
+      <c r="B374" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>51</v>
+      </c>
+      <c r="B375" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C377" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>217</v>
+      </c>
+      <c r="B378" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>187</v>
+      </c>
+      <c r="B379" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>268</v>
+      </c>
+      <c r="B380" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>292</v>
+      </c>
+      <c r="B381" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>